--- a/Resources/TestData1.xlsx
+++ b/Resources/TestData1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC1DD2-393C-4F87-B319-8802E07F8DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E2E36461-07CF-4E09-9BDF-BE9B93170CF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="827" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24615" windowHeight="9120" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="BSATest" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:T28"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,9 +169,6 @@
     <t>30/01/1997</t>
   </si>
   <si>
-    <t>Corporateservices@idfcbank.com</t>
-  </si>
-  <si>
     <t>Naman Chambers, C32, G  Block, Bandra Kurla Complex, Bandra East</t>
   </si>
   <si>
@@ -646,6 +644,9 @@
   </si>
   <si>
     <t>CollateralPincode</t>
+  </si>
+  <si>
+    <t>Corporateservices@icicibank.com</t>
   </si>
 </sst>
 </file>
@@ -980,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1011,24 +1012,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4211E12D-6729-4E6A-A794-96D84015D14B}">
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1097,22 +1098,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -1121,70 +1122,70 @@
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="AA1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>10</v>
@@ -1193,302 +1194,302 @@
         <v>12</v>
       </c>
       <c r="AI1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="AL1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="AO1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AQ1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="X2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="AQ2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="AO3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1502,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1565,7 +1566,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
@@ -1601,37 +1602,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>13</v>
@@ -1639,19 +1640,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1670,7 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,10 +1700,10 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
@@ -1717,58 +1718,58 @@
         <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>12</v>
@@ -1777,30 +1778,30 @@
         <v>10</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
@@ -1812,55 +1813,55 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="W2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>13</v>
@@ -1869,90 +1870,90 @@
         <v>11</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="W3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>13</v>
@@ -1961,13 +1962,13 @@
         <v>11</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +1982,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +1994,7 @@
     <col min="5" max="5" width="23.85546875" style="2" customWidth="1"/>
     <col min="6" max="8" width="23" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23" style="2" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="90" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2047,7 +2048,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -2082,37 +2083,37 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>9</v>
@@ -2134,7 +2135,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF52CCBF-7EE2-4F86-B801-A58A2BFC9AB2}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
